--- a/biology/Zoologie/Celestus_crusculus/Celestus_crusculus.xlsx
+++ b/biology/Zoologie/Celestus_crusculus/Celestus_crusculus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celestus crusculus est une espèce de sauriens de la famille des Diploglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celestus crusculus est une espèce de sauriens de la famille des Diploglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Antilles[1]. Elle se rencontre à la Jamaïque et aux îles Caïmans.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Antilles. Elle se rencontre à la Jamaïque et aux îles Caïmans.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 mai 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 mai 2012) :
 Celestus crusculus crusculus (Garman, 1887) de Jamaïque
 Celestus crusculus cundalli Grant, 1940 de Jamaïque
 Celestus crusculus maculatus Garman, 1888 des îles Caïmans
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Garman, 1887 : On West Indian Geckonidae and Anguidae. Bulletin of the Essex institute, vol. 19, p. 17-24 (texte intégral).
 Garman, 1888 : Reptiles and batrachians from the Caymans and from the Bahamas Collected by Prof. C. J. Maynard for the Museum of Comparative Zoology at Cambridge. Massachusetts Bulletin of the Essex Institute, vol. 20, p. 101-113 (texte intégral).
